--- a/biology/Botanique/Euphorbia_verrucosa/Euphorbia_verrucosa.xlsx
+++ b/biology/Botanique/Euphorbia_verrucosa/Euphorbia_verrucosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia verrucosa, l'Euphorbe verruqueuse, est une espèce de plantes à fleurs de la famille des Euphorbiacées.
 C'est une plante herbacée que l'on trouve en Europe. En France, on la trouve dans la ZNIEFF de la vallée de la Nizonne, en Dordogne. Il s'agit d'une plante sauvage listée dans la flore de la Belgique. Elle est également recensée en Bosnie-Herzégovine.
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 juin 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 juin 2017) (Attention liste brute contenant possiblement des synonymes) :
 Euphorbia verrucosa var. flavescens Benth.
 Euphorbia verrucosa var. montana Gaudin
 Euphorbia verrucosa var. montenegrina Bald.
